--- a/1-10.xlsx
+++ b/1-10.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\张鑫豪\项目\python项目\教室日程表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\张鑫豪\项目\python项目\教室日程表\sdust_14_classroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95051235-9CD8-4134-AD0D-F5ABF1B30F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D1C6B8-8210-4A89-912A-8F6CDC1CB4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5208" yWindow="1008" windowWidth="12552" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 0" sheetId="2" r:id="rId1"/>
+    <sheet name="table" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Table 0'!$A$1:$AJ$93</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">table!$A$1:$AJ$93</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
